--- a/Stebo_April_2017/Summary.xlsx
+++ b/Stebo_April_2017/Summary.xlsx
@@ -103,10 +103,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -389,7 +389,7 @@
   <dimension ref="B2:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="H16" sqref="H16:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -398,18 +398,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="C2" s="3"/>
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="H2" s="2" t="s">
+      <c r="F2" s="3"/>
+      <c r="H2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="2"/>
+      <c r="I2" s="3"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
@@ -435,19 +435,19 @@
       <c r="B4" s="1">
         <v>1604</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>650.97</v>
       </c>
       <c r="E4" s="1">
         <v>1616</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>614.09</v>
       </c>
       <c r="H4" s="1">
         <v>1614</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <v>612.94000000000005</v>
       </c>
     </row>
@@ -455,19 +455,19 @@
       <c r="B5" s="1">
         <v>1901</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>857.38</v>
       </c>
       <c r="E5" s="1">
         <v>1911</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>876.72</v>
       </c>
       <c r="H5" s="1">
         <v>1918</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="2">
         <v>880.64</v>
       </c>
     </row>
@@ -475,19 +475,19 @@
       <c r="B6" s="1">
         <v>2313</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>1173.5</v>
       </c>
       <c r="E6" s="1">
         <v>2314</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>1183.24</v>
       </c>
       <c r="H6" s="1">
         <v>2331</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="2">
         <v>1216.3499999999999</v>
       </c>
     </row>
@@ -495,35 +495,35 @@
       <c r="B7" s="1">
         <v>2605</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>1433.07</v>
       </c>
       <c r="E7" s="1">
         <v>2603</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>1412.61</v>
       </c>
       <c r="H7" s="1">
         <v>2620</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="2">
         <v>1495.25</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="E9" s="2" t="s">
+      <c r="C9" s="3"/>
+      <c r="E9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="H9" s="2" t="s">
+      <c r="F9" s="3"/>
+      <c r="H9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="2"/>
+      <c r="I9" s="3"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
@@ -549,19 +549,19 @@
       <c r="B11" s="1">
         <v>1612</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>645.24</v>
       </c>
       <c r="E11" s="1">
         <v>1605</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>686.21</v>
       </c>
       <c r="H11" s="1">
         <v>1601</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="2">
         <v>694.08</v>
       </c>
     </row>
@@ -569,19 +569,19 @@
       <c r="B12" s="1">
         <v>1904</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>894.98</v>
       </c>
       <c r="E12" s="1">
         <v>1906</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>946.8</v>
       </c>
       <c r="H12" s="1">
         <v>1904</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="2">
         <v>908.02</v>
       </c>
     </row>
@@ -589,19 +589,19 @@
       <c r="B13" s="1">
         <v>2308</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>1216.07</v>
       </c>
       <c r="E13" s="1">
         <v>2311</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <v>1291.71</v>
       </c>
       <c r="H13" s="1">
         <v>2309</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="2">
         <v>1255.8499999999999</v>
       </c>
     </row>
@@ -609,35 +609,35 @@
       <c r="B14" s="1">
         <v>2605</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>1477.65</v>
       </c>
       <c r="E14" s="1">
         <v>2614</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <v>1575.56</v>
       </c>
       <c r="H14" s="1">
         <v>2604</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="2">
         <v>1545.21</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="E16" s="2" t="s">
+      <c r="C16" s="3"/>
+      <c r="E16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="H16" s="2" t="s">
+      <c r="F16" s="3"/>
+      <c r="H16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I16" s="2"/>
+      <c r="I16" s="3"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
@@ -663,19 +663,19 @@
       <c r="B18" s="1">
         <v>1605</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>592.24</v>
       </c>
       <c r="E18" s="1">
         <v>1611</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="2">
         <v>631.88</v>
       </c>
       <c r="H18" s="1">
         <v>1613</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="2">
         <v>650.04999999999995</v>
       </c>
     </row>
@@ -683,19 +683,19 @@
       <c r="B19" s="1">
         <v>1905</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <v>846.93</v>
       </c>
       <c r="E19" s="1">
         <v>1904</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="2">
         <v>866.8</v>
       </c>
       <c r="H19" s="1">
         <v>1903</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="2">
         <v>879.51</v>
       </c>
     </row>
@@ -703,19 +703,19 @@
       <c r="B20" s="1">
         <v>2312</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>1177.69</v>
       </c>
       <c r="E20" s="1">
         <v>2306</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="2">
         <v>1186.26</v>
       </c>
       <c r="H20" s="1">
         <v>2303</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="2">
         <v>1191.01</v>
       </c>
     </row>
@@ -723,19 +723,19 @@
       <c r="B21" s="1">
         <v>2605</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>1429.47</v>
       </c>
       <c r="E21" s="1">
         <v>2605</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="2">
         <v>1465.9</v>
       </c>
       <c r="H21" s="1">
         <v>2610</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="2">
         <v>1479.92</v>
       </c>
     </row>
